--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251109_201334.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251109_201334.xlsx
@@ -4433,7 +4433,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
